--- a/cocos-prog/03-tool/gj/upLv.xlsx
+++ b/cocos-prog/03-tool/gj/upLv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14680"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1224,15 +1224,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="16.5" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="16.5" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="16.5" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1261,6 +1261,7 @@
         <v>1</v>
       </c>
       <c r="B4">
+        <f t="shared" ref="B4:B13" si="0">100*A4-100</f>
         <v>0</v>
       </c>
     </row>
@@ -1269,6 +1270,7 @@
         <v>2</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1277,6 +1279,7 @@
         <v>3</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
@@ -1285,6 +1288,7 @@
         <v>4</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
@@ -1293,6 +1297,7 @@
         <v>5</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
@@ -1301,6 +1306,7 @@
         <v>6</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
@@ -1309,6 +1315,7 @@
         <v>7</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
     </row>
@@ -1317,6 +1324,7 @@
         <v>8</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
@@ -1325,6 +1333,7 @@
         <v>9</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
     </row>
@@ -1333,6 +1342,7 @@
         <v>10</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
     </row>
@@ -1341,7 +1351,8 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <f t="shared" ref="B14:B23" si="1">110*(A14+1)</f>
+        <v>1320</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1349,7 +1360,8 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>1100</v>
+        <f t="shared" si="1"/>
+        <v>1430</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1357,7 +1369,8 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>1200</v>
+        <f t="shared" si="1"/>
+        <v>1540</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1365,7 +1378,8 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>1300</v>
+        <f t="shared" si="1"/>
+        <v>1650</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1373,7 +1387,8 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>1400</v>
+        <f t="shared" si="1"/>
+        <v>1760</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1381,7 +1396,8 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>1500</v>
+        <f t="shared" si="1"/>
+        <v>1870</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1389,7 +1405,8 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>1600</v>
+        <f t="shared" si="1"/>
+        <v>1980</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1397,7 +1414,8 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>1700</v>
+        <f t="shared" si="1"/>
+        <v>2090</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1405,7 +1423,8 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>1800</v>
+        <f t="shared" si="1"/>
+        <v>2200</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1413,7 +1432,8 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>1900</v>
+        <f t="shared" si="1"/>
+        <v>2310</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1421,7 +1441,8 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>2000</v>
+        <f t="shared" ref="B24:B33" si="2">110*(A24+2)+100</f>
+        <v>2630</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1429,7 +1450,8 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>2100</v>
+        <f t="shared" si="2"/>
+        <v>2740</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1437,7 +1459,8 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>2200</v>
+        <f t="shared" si="2"/>
+        <v>2850</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1445,7 +1468,8 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>2300</v>
+        <f t="shared" si="2"/>
+        <v>2960</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1453,7 +1477,8 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>2400</v>
+        <f t="shared" si="2"/>
+        <v>3070</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1461,7 +1486,8 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>2500</v>
+        <f t="shared" si="2"/>
+        <v>3180</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1469,7 +1495,8 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>2600</v>
+        <f t="shared" si="2"/>
+        <v>3290</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1477,7 +1504,8 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>2700</v>
+        <f t="shared" si="2"/>
+        <v>3400</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1485,7 +1513,107 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>2800</v>
+        <f t="shared" si="2"/>
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B43" si="3">110*(1.5*A34+1)+100</f>
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>5655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>6645</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>6810</v>
       </c>
     </row>
   </sheetData>
